--- a/DataFiles/userdata.xlsx
+++ b/DataFiles/userdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>khalil</t>
   </si>
   <si>
-    <t>sameh5@yahoo.com</t>
-  </si>
-  <si>
     <t>Test@123</t>
   </si>
   <si>
@@ -45,13 +42,16 @@
     <t>antoun</t>
   </si>
   <si>
-    <t>meena15@yahoo.com</t>
-  </si>
-  <si>
     <t>book</t>
   </si>
   <si>
     <t>HP Spectre XT Pro UltraBook</t>
+  </si>
+  <si>
+    <t>sameh51@yahoo.com</t>
+  </si>
+  <si>
+    <t>meena1515@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -382,8 +382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,30 +403,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -446,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -459,13 +459,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
